--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/9 AUDITORIA PASIVO LARGO PLAZO/3 ANALISIS DE PRESTAMOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/9 AUDITORIA PASIVO LARGO PLAZO/3 ANALISIS DE PRESTAMOS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\9 AUDITORIA PASIVO LARGO PLAZO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\9 AUDITORIA PASIVO LARGO PLAZO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011ABC2F-0D84-4CDB-AE56-2C50FE03CAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -33,9 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
-    <t xml:space="preserve">                                  AUDITORIA FINANCIERA </t>
-  </si>
-  <si>
     <t>Elaboro</t>
   </si>
   <si>
@@ -45,9 +37,6 @@
     <t>Reviso</t>
   </si>
   <si>
-    <t xml:space="preserve">                       (Cifras expresadas en quetzales)</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONCLUSIÓN: </t>
   </si>
   <si>
@@ -72,21 +61,12 @@
     <t>Puesto:</t>
   </si>
   <si>
-    <t xml:space="preserve">      ENTIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                           DEL 01 DE ENERO AL 31  DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
     <t>Como resultado de nuestros procedimientos conforme a Normas Internacionales de Auditoría, Nías, opino que los saldos contables al 31/12/202X,</t>
   </si>
   <si>
     <t xml:space="preserve"> están registrados, disponibles, revelados, valuados, presentados adecuadamente y son razonables. </t>
   </si>
   <si>
-    <t xml:space="preserve">                             ANALISIS DE PRESTAMOS</t>
-  </si>
-  <si>
     <t>ID Préstamo</t>
   </si>
   <si>
@@ -193,13 +173,28 @@
   </si>
   <si>
     <t>I-2</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDITORIA FINANCIERA </t>
+  </si>
+  <si>
+    <t>ANALISIS DE PRESTAMOS</t>
+  </si>
+  <si>
+    <t>(Cifras expresadas en quetzales)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +255,12 @@
       <b/>
       <sz val="15"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -353,14 +354,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,19 +394,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -449,7 +454,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CuadroTexto 26"/>
+        <xdr:cNvPr id="27" name="CuadroTexto 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -531,7 +542,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="25 Conector recto"/>
+        <xdr:cNvPr id="17" name="25 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -579,7 +596,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="26 Conector recto"/>
+        <xdr:cNvPr id="18" name="26 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -627,7 +650,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="29 Conector recto"/>
+        <xdr:cNvPr id="28" name="29 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -675,7 +704,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="30 Conector recto"/>
+        <xdr:cNvPr id="29" name="30 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -723,7 +758,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="31 Triángulo isósceles"/>
+        <xdr:cNvPr id="32" name="31 Triángulo isósceles">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -757,20 +798,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B11:L16" headerRowDxfId="0">
-  <autoFilter ref="B11:L16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B11:L16" headerRowDxfId="0">
+  <autoFilter ref="B11:L16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ID Préstamo" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Nombre del Banco"/>
-    <tableColumn id="11" name="Contrato del Préstamo No. "/>
-    <tableColumn id="3" name="Monto del Préstamo"/>
-    <tableColumn id="4" name="Pagos Realizados Año XXXX"/>
-    <tableColumn id="5" name="Tasa de Interés (%)"/>
-    <tableColumn id="6" name="Fecha de Inicio"/>
-    <tableColumn id="7" name="Fecha de Vencimiento"/>
-    <tableColumn id="8" name="Estado"/>
-    <tableColumn id="9" name="Uso del Préstamo"/>
-    <tableColumn id="10" name="Observaciones"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID Préstamo" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre del Banco"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Contrato del Préstamo No. "/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Monto del Préstamo"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Pagos Realizados Año XXXX"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tasa de Interés (%)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fecha de Inicio"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Fecha de Vencimiento"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Estado"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Uso del Préstamo"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Observaciones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1072,7 +1113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1087,11 +1128,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,175 +1151,175 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="29" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="28" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="7"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
+      <c r="D11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="H11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="I11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="27" t="s">
+      <c r="J11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="K11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="L11" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>5000</v>
@@ -1298,19 +1339,19 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>10000</v>
@@ -1330,19 +1371,19 @@
         <v>4.5</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1350,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>7500</v>
@@ -1362,19 +1403,19 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>12000</v>
@@ -1394,19 +1435,19 @@
         <v>5.5</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1414,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>3000</v>
@@ -1426,277 +1467,282 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F33" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-    </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F33" s="25" t="s">
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F34" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="25" t="s">
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-    </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F34" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="3"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="2"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="3"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="2"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="3"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="2"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="3"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="C10:K10"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" r:id="rId1"/>
